--- a/biology/Botanique/Pourritures_du_cœur_du_palmier_à_huile/Pourritures_du_cœur_du_palmier_à_huile.xlsx
+++ b/biology/Botanique/Pourritures_du_cœur_du_palmier_à_huile/Pourritures_du_cœur_du_palmier_à_huile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pourritures_du_c%C5%93ur_du_palmier_%C3%A0_huile</t>
+          <t>Pourritures_du_cœur_du_palmier_à_huile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pourritures du cœur du palmier à huile regroupent sous un même vocable d'importantes maladies du palmier à huile (Elaeis guineensis) affectant les cultures de cette plante oléagineuse en Amérique latine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pourritures_du_c%C5%93ur_du_palmier_%C3%A0_huile</t>
+          <t>Pourritures_du_cœur_du_palmier_à_huile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces maladies ont toutes comme caractéristique de comporter dans leur symptômes la pourriture des jeunes tissus du haut du stipe voisins de la zone méristématique. Parmi les autres symptômes figurent le raccourcissement des feuilles et leur jaunissement.
 Au minimum, elles provoquent un fort ralentissement de croissance et de production et, au pire, la mort de la plante infectée.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pourritures_du_c%C5%93ur_du_palmier_%C3%A0_huile</t>
+          <t>Pourritures_du_cœur_du_palmier_à_huile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en espagnol : pudrición del cogollo (de la palma africana).
 en brésilien : amarelecimento fatal (do dendozeiro)
